--- a/Tareas/Tabla Valores R.docx.xlsx
+++ b/Tareas/Tabla Valores R.docx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bondleton\Documents\BUAP\Inteligencia de Negocios\Tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C0C85D-59C3-447D-83FF-B13C203A8418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F072D4-5EAF-4054-8941-FB579EC8CCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A1D4D418-366D-478C-9EA9-1CC7C5A952EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
     <t>Entire</t>
   </si>
@@ -76,6 +76,27 @@
   <si>
     <t>Naples</t>
   </si>
+  <si>
+    <t>host_acceptance_rate</t>
+  </si>
+  <si>
+    <t>host_id (id)</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>host_is_superhost</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +145,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6C9EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -267,11 +300,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -285,18 +359,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -309,10 +393,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,12 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,6 +421,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -343,6 +462,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA6C9EC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -671,41 +795,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFBBA43-66F3-4F83-849E-B553016E1CA1}">
-  <dimension ref="B1:R34"/>
+  <dimension ref="B1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="1"/>
@@ -726,422 +852,422 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="11">
         <v>8.6021219991462596E-3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="11">
         <v>7.9660081771658398E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="11">
         <v>0.15323577989833501</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="11">
         <v>6.75865995342676E-2</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="29">
+        <v>0.35508354328170799</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0.32841654941132098</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0.25379482373453699</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0.31489284684355101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="30"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="16"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="16"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1.4320556697965E-2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.113437457470075</v>
+      </c>
+      <c r="E6" s="11">
+        <v>7.3277972188698498E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.249640072906367</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="11">
         <v>0.100436437325837</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.18626879943943001</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.17567907802452301</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0.249640072906367</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="12"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="12"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="12"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.35508354328170799</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3.2583437586612703E-2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3.2952837361022301E-2</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.31489284684355101</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="11">
+        <v>7.0745982153942205E-2</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.113437457470075</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.15323577989833501</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.245862572402473</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="12"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="12"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="12"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.100436437325837</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.10938248051499801</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2.2784421935731498E-2</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.11687637685128199</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="11">
+      <c r="I10" s="11">
+        <v>3.5260802550914898E-2</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.10938248051499801</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="11">
+        <v>7.3277972188698498E-2</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0.17689554046790201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="12"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="12"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3.5260802550914898E-2</v>
+      </c>
+      <c r="D12" s="11">
         <v>0.32841654941132098</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="E12" s="11">
+        <v>0.25379482373453699</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.14681901094261501</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1.4320556697965E-2</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="11">
+        <v>7.9660081771658398E-2</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="11">
+        <v>3.2952837361022301E-2</v>
+      </c>
+      <c r="Q12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="11">
-        <v>0.25379482373453699</v>
-      </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R12" s="11">
+        <v>0.14681901094261501</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="12"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="12"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="12"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11">
+        <v>7.0745982153942205E-2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>6.3367901543678704E-2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.17567907802452301</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.17689554046790201</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="11">
+        <v>8.6021219991462596E-3</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="11">
+        <v>6.3367901543678704E-2</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="11">
+        <v>2.2784421935731498E-2</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="11">
+        <v>0.11687637685128199</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="12"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="12"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="12"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5.5731381082868604E-3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.18626879943943001</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2.1164171416878898E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.245862572402473</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="11">
+        <v>5.5731381082868604E-3</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="11">
-        <v>0.31489284684355101</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="12"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="12"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="12"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.4320556697965E-2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.113437457470075</v>
-      </c>
-      <c r="E6" s="5">
-        <v>7.3277972188698498E-2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.249640072906367</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.100436437325837</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="L16" s="11">
+        <v>3.2583437586612703E-2</v>
+      </c>
+      <c r="N16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="5">
-        <v>0.18626879943943001</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0.17567907802452301</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0.249640072906367</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="6"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="6"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="6"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.100436437325837</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3.2583437586612703E-2</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3.2952837361022301E-2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.31489284684355101</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="5">
-        <v>7.0745982153942205E-2</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0.113437457470075</v>
-      </c>
-      <c r="N8" s="9" t="s">
+      <c r="O16" s="11">
+        <v>2.1164171416878898E-2</v>
+      </c>
+      <c r="Q16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="5">
-        <v>0.15323577989833501</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8" s="5">
-        <v>0.245862572402473</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="6"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="6"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.100436437325837</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.10938248051499801</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2.2784421935731498E-2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.11687637685128199</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="5">
-        <v>3.5260802550914898E-2</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0.10938248051499801</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="5">
-        <v>7.3277972188698498E-2</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0.17689554046790201</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="6"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="6"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5">
-        <v>3.5260802550914898E-2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.32841654941132098</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.25379482373453699</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.14681901094261501</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1.4320556697965E-2</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="5">
-        <v>7.9660081771658398E-2</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="5">
-        <v>3.2952837361022301E-2</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="5">
-        <v>0.14681901094261501</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="6"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="6"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5">
-        <v>7.0745982153942205E-2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>6.3367901543678704E-2</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.17567907802452301</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.17689554046790201</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="5">
-        <v>8.6021219991462596E-3</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="5">
-        <v>6.3367901543678704E-2</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" s="5">
-        <v>2.2784421935731498E-2</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R14" s="5">
-        <v>0.11687637685128199</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="6"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="6"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5">
-        <v>5.5731381082868604E-3</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.18626879943943001</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2.1164171416878898E-2</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.245862572402473</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5">
-        <v>5.5731381082868604E-3</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="5">
-        <v>3.2583437586612703E-2</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="5">
-        <v>2.1164171416878898E-2</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="R16" s="5">
+      <c r="R16" s="11">
         <v>6.75865995342676E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="6"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="6"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="6"/>
-    </row>
-    <row r="18" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="19"/>
-    </row>
-    <row r="19" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
+    <row r="17" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="12"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="12"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="12"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
         <v>0</v>
@@ -1163,414 +1289,569 @@
       <c r="L20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M20" s="14"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="1"/>
       <c r="O20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="14"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="T20" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y20" s="31"/>
+    </row>
+    <row r="21" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="11">
         <v>3.5734759413831897E-2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="11">
         <v>0.107985709108362</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="11">
         <v>9.6512578977891395E-2</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="11">
         <v>0.31482723911594901</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="9">
         <v>0.13077872435724</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="15">
         <v>0.17592287813968299</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="15">
         <v>0.29218703957263498</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="15">
         <v>0.32721658063845699</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="12"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="12"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="12"/>
-    </row>
-    <row r="23" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="T21" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="33"/>
+      <c r="V21" s="34">
+        <v>0.32721658063845699</v>
+      </c>
+      <c r="W21" s="35"/>
+      <c r="X21" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="37"/>
+    </row>
+    <row r="22" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="16"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="16"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="16"/>
+      <c r="T22" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="33"/>
+      <c r="V22" s="34">
+        <v>0.29218703957263498</v>
+      </c>
+      <c r="W22" s="35"/>
+      <c r="X22" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y22" s="37"/>
+    </row>
+    <row r="23" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="11">
         <v>4.8480330331128398E-2</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="11">
         <v>0.11984692942684801</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="11">
         <v>0.15111167115534699</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="11">
         <v>6.08370101854614E-2</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="19">
         <v>4.8480330331128398E-2</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="19">
         <v>0.1723323688534</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="19">
         <v>0.21327960282209801</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="19">
         <v>0.31482723911594901</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="6"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="6"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="6"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="T23" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="U23" s="33"/>
+      <c r="V23" s="34">
+        <v>0.17592287813968299</v>
+      </c>
+      <c r="W23" s="35"/>
+      <c r="X23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="37"/>
+    </row>
+    <row r="24" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="20"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="20"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="20"/>
+      <c r="T24" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="33"/>
+      <c r="V24" s="34">
+        <v>0.13077872435724</v>
+      </c>
+      <c r="W24" s="35"/>
+      <c r="X24" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="37"/>
+    </row>
+    <row r="25" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="11">
         <v>0</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="11">
         <v>0</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="11">
         <v>0</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="11">
         <v>0</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="19">
         <v>4.7681575514959197E-2</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="19">
         <v>0.11984692942684801</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="19">
         <v>0.18478842227616701</v>
       </c>
-      <c r="Q25" s="9" t="s">
+      <c r="Q25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="19">
         <v>0.17357165334709601</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="6"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="6"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="6"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+    <row r="26" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="20"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="20"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="20"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="20"/>
+    </row>
+    <row r="27" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="11">
         <v>0.13077872435724</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="11">
         <v>0.1723323688534</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="11">
         <v>0.21327960282209801</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="11">
         <v>0.32721658063845699</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="11">
         <v>3.5734759413831897E-2</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="11">
         <v>0.107985709108362</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="11">
         <v>0.15111167115534699</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="Q27" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="11">
         <v>0.12803000697554601</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="6"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="6"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="6"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="6"/>
-    </row>
-    <row r="29" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+    <row r="28" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="12"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="12"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="12"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="11">
         <v>1.9639151306537001E-2</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="11">
         <v>1.8057370237177099E-4</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="11">
         <v>0.29218703957263498</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="11">
         <v>0.17357165334709601</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="11">
         <v>1.9639151306537001E-2</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="11">
         <v>0.10511718459000099</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O29" s="11">
         <v>0.144413319981577</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="Q29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="11">
         <v>9.4803990837682997E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="6"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="6"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="6"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+    <row r="30" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="12"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="12"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="12"/>
+    </row>
+    <row r="31" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="11">
         <v>1.4837299833459E-2</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="11">
         <v>0.17592287813968299</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="11">
         <v>0.18478842227616701</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="11">
         <v>0.12803000697554601</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="11">
         <v>1.4837299833459E-2</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="11">
         <v>1.8057370237177099E-4</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="11">
         <v>9.6512578977891395E-2</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="11">
         <v>6.08370101854614E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="6"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="6"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="6"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="6"/>
+    <row r="32" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="12"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="12"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="12"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="12"/>
     </row>
     <row r="33" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="11">
         <v>4.7681575514959197E-2</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="11">
         <v>0.10511718459000099</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="11">
         <v>0.144413319981577</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="11">
         <v>9.4803990837682997E-2</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="11">
         <v>0</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="11">
         <v>0</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="11">
         <v>0</v>
       </c>
-      <c r="Q33" s="9" t="s">
+      <c r="Q33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R33" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="6"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="6"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="6"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="6"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="12"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="12"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="12"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="14"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.16918930513283401</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="14"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="14"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="13"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="14"/>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="13"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="14"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="13"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="14"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="13"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="8:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="14"/>
+      <c r="I49" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q20:R34">
-    <sortCondition descending="1" ref="R21:R34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T21:Y24">
+    <sortCondition descending="1" ref="V21:V24"/>
   </sortState>
-  <mergeCells count="184">
+  <mergeCells count="213">
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
     <mergeCell ref="R31:R32"/>
     <mergeCell ref="R33:R34"/>
     <mergeCell ref="B2:F2"/>
@@ -1622,6 +1903,7 @@
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="I29:I30"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="H21:H22"/>
@@ -1633,16 +1915,6 @@
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="C23:C24"/>
@@ -1660,6 +1932,15 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
@@ -1671,6 +1952,7 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
@@ -1683,6 +1965,9 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
@@ -1704,7 +1989,11 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="K4:K5"/>
@@ -1724,23 +2013,7 @@
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="I38:I39"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="Q6:Q7"/>
@@ -1755,6 +2028,15 @@
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="R14:R15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tareas/Tabla Valores R.docx.xlsx
+++ b/Tareas/Tabla Valores R.docx.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bondleton\Documents\BUAP\Inteligencia de Negocios\Tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F072D4-5EAF-4054-8941-FB579EC8CCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253B7765-6658-4F27-A47F-1AAB20F9096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A1D4D418-366D-478C-9EA9-1CC7C5A952EB}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{A1D4D418-366D-478C-9EA9-1CC7C5A952EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Hlk191790164" localSheetId="0">Hoja1!$AM$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="51">
   <si>
     <t>Entire</t>
   </si>
@@ -96,13 +99,129 @@
   </si>
   <si>
     <t>host_is_superhost</t>
+  </si>
+  <si>
+    <t>Suma de R</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>review_scores_communication</t>
+  </si>
+  <si>
+    <t>maximum_nights</t>
+  </si>
+  <si>
+    <t>availability_60</t>
+  </si>
+  <si>
+    <t>number_of_reviews_ltm</t>
+  </si>
+  <si>
+    <t>reviews_per_month</t>
+  </si>
+  <si>
+    <t>number_of_reviews_l30d</t>
+  </si>
+  <si>
+    <t>Regresion multiple</t>
+  </si>
+  <si>
+    <t>number_of_reviews</t>
+  </si>
+  <si>
+    <t>review_scores_rating</t>
+  </si>
+  <si>
+    <t>host_total_listings_count</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>host_listings_count</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>accommodates</t>
+  </si>
+  <si>
+    <t>beds</t>
+  </si>
+  <si>
+    <t>bedrooms</t>
+  </si>
+  <si>
+    <t>review_scores_value</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>review_scores_accuracy</t>
+  </si>
+  <si>
+    <t>review_scores_cleanliness</t>
+  </si>
+  <si>
+    <t>room_type (prop type)</t>
+  </si>
+  <si>
+    <t>property_type</t>
+  </si>
+  <si>
+    <r>
+      <t>Variable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <r>
+      <t>Variable</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Entire2</t>
+  </si>
+  <si>
+    <t>Private2</t>
+  </si>
+  <si>
+    <t>Shared2</t>
+  </si>
+  <si>
+    <t>Hotel2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +250,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +296,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAEDFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -341,11 +492,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -369,91 +566,188 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -795,32 +1089,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFBBA43-66F3-4F83-849E-B553016E1CA1}">
-  <dimension ref="B1:Y49"/>
+  <dimension ref="B1:BJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42:I43"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29.85546875" customWidth="1"/>
+    <col min="28" max="29" width="28.28515625" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:62" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:62" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="AB2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="22"/>
+      <c r="AM2" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="72"/>
     </row>
-    <row r="3" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:62" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -850,21 +1168,95 @@
       <c r="R3" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="AB3" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="50">
+        <v>0.39186747577049702</v>
+      </c>
+      <c r="AE3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF3" s="19"/>
+      <c r="AH3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI3" s="19"/>
+      <c r="AM3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN3" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA3" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE3" s="53"/>
+      <c r="BF3" s="60"/>
+      <c r="BG3" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="52" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:62" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="23">
         <v>8.6021219991462596E-3</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="23">
         <v>7.9660081771658398E-2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="23">
         <v>0.15323577989833501</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="23">
         <v>6.75865995342676E-2</v>
       </c>
       <c r="H4" s="27" t="s">
@@ -876,374 +1268,1059 @@
       <c r="K4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="25">
         <v>0.32841654941132098</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="25">
         <v>0.25379482373453699</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="25">
         <v>0.31489284684355101</v>
       </c>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="18"/>
+      <c r="AE4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>0.263375265558833</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>0.15361532160035199</v>
+      </c>
+      <c r="AM4" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN4" s="56">
+        <v>8.6020999999999997E-3</v>
+      </c>
+      <c r="AO4" s="56">
+        <v>7.9660099999999998E-2</v>
+      </c>
+      <c r="AP4" s="56">
+        <v>0.15323580000000001</v>
+      </c>
+      <c r="AQ4" s="56">
+        <v>6.7586599999999997E-2</v>
+      </c>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT4" s="56">
+        <v>3.5734799999999997E-2</v>
+      </c>
+      <c r="AU4" s="56">
+        <v>0.1079857</v>
+      </c>
+      <c r="AV4" s="56">
+        <v>9.6512600000000004E-2</v>
+      </c>
+      <c r="AW4" s="56">
+        <v>0.31482719999999997</v>
+      </c>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA4" s="56">
+        <v>8.6020999999999997E-3</v>
+      </c>
+      <c r="BB4" s="56">
+        <v>7.9660099999999998E-2</v>
+      </c>
+      <c r="BC4" s="56">
+        <v>0.15323580000000001</v>
+      </c>
+      <c r="BD4" s="56">
+        <v>6.7586599999999997E-2</v>
+      </c>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG4" s="56">
+        <v>3.5734799999999997E-2</v>
+      </c>
+      <c r="BH4" s="56">
+        <v>0.1079857</v>
+      </c>
+      <c r="BI4" s="56">
+        <v>9.6512600000000004E-2</v>
+      </c>
+      <c r="BJ4" s="56">
+        <v>0.31482719999999997</v>
+      </c>
     </row>
-    <row r="5" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+    <row r="5" spans="2:62" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
       <c r="H5" s="28"/>
       <c r="I5" s="30"/>
       <c r="K5" s="28"/>
-      <c r="L5" s="16"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="16"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="16"/>
+      <c r="L5" s="26"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="26"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="26"/>
+      <c r="AB5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>0.17262721635213199</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>0.24528475018842399</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>0.13644579679594601</v>
+      </c>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="57"/>
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="57"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="57"/>
+      <c r="BB5" s="57"/>
+      <c r="BC5" s="57"/>
+      <c r="BD5" s="57"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="55"/>
+      <c r="BG5" s="57"/>
+      <c r="BH5" s="57"/>
+      <c r="BI5" s="57"/>
+      <c r="BJ5" s="57"/>
     </row>
-    <row r="6" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:62" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="23">
         <v>1.4320556697965E-2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="23">
         <v>0.113437457470075</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="23">
         <v>7.3277972188698498E-2</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="23">
         <v>0.249640072906367</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="23">
         <v>0.100436437325837</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="23">
         <v>0.18626879943943001</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="23">
         <v>0.17567907802452301</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="23">
         <v>0.249640072906367</v>
       </c>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="18"/>
+      <c r="AE6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>0.19120100517476801</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>0.12095948215436</v>
+      </c>
+      <c r="AM6" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="59">
+        <v>1.4320599999999999E-2</v>
+      </c>
+      <c r="AO6" s="59">
+        <v>0.1134375</v>
+      </c>
+      <c r="AP6" s="59">
+        <v>7.3277999999999996E-2</v>
+      </c>
+      <c r="AQ6" s="59">
+        <v>0.2496401</v>
+      </c>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="59">
+        <v>4.8480299999999997E-2</v>
+      </c>
+      <c r="AU6" s="59">
+        <v>0.11984690000000001</v>
+      </c>
+      <c r="AV6" s="59">
+        <v>0.15111169999999999</v>
+      </c>
+      <c r="AW6" s="59">
+        <v>6.0837000000000002E-2</v>
+      </c>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
     </row>
-    <row r="7" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="12"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="12"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="12"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="12"/>
+    <row r="7" spans="2:62" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="24"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="24"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="24"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="24"/>
+      <c r="AB7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>0.48514891789402897</v>
+      </c>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="68"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="51"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA7" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB7" s="63"/>
+      <c r="BC7" s="65"/>
+      <c r="BD7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE7" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="53"/>
     </row>
-    <row r="8" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="2:62" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="23">
         <v>0.35508354328170799</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="23">
         <v>3.2583437586612703E-2</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="23">
         <v>3.2952837361022301E-2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="23">
         <v>0.31489284684355101</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="23">
         <v>7.0745982153942205E-2</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="23">
         <v>0.113437457470075</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="23">
         <v>0.15323577989833501</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="23">
         <v>0.245862572402473</v>
       </c>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="18"/>
+      <c r="AE8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" s="19"/>
+      <c r="AH8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI8" s="19"/>
+      <c r="AM8" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN8" s="59">
+        <v>0.1004364</v>
+      </c>
+      <c r="AO8" s="59">
+        <v>3.2583399999999998E-2</v>
+      </c>
+      <c r="AP8" s="59">
+        <v>3.2952799999999997E-2</v>
+      </c>
+      <c r="AQ8" s="59">
+        <v>0.31489279999999997</v>
+      </c>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="59">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53"/>
+      <c r="AZ8" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA8" s="64">
+        <v>0.24586259999999999</v>
+      </c>
+      <c r="BB8" s="64"/>
+      <c r="BC8" s="66"/>
+      <c r="BD8" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE8" s="56">
+        <v>0.1004364</v>
+      </c>
+      <c r="BF8" s="53"/>
     </row>
-    <row r="9" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="12"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="12"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="12"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="12"/>
+    <row r="9" spans="2:62" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="24"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="24"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="24"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="24"/>
+      <c r="AA9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>0.87227614333884296</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>0.356371603978624</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>0.875681574044751</v>
+      </c>
+      <c r="AM9" s="68"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="68"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
+      <c r="AX9" s="51"/>
+      <c r="AY9" s="53"/>
+      <c r="AZ9" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="64">
+        <v>0.18626880000000001</v>
+      </c>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="66"/>
+      <c r="BD9" s="55"/>
+      <c r="BE9" s="57"/>
+      <c r="BF9" s="53"/>
     </row>
-    <row r="10" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="2:62" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="23">
         <v>0.100436437325837</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="23">
         <v>0.10938248051499801</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="23">
         <v>2.2784421935731498E-2</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="23">
         <v>0.11687637685128199</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="23">
         <v>3.5260802550914898E-2</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="23">
         <v>0.10938248051499801</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="23">
         <v>7.3277972188698498E-2</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="23">
         <v>0.17689554046790201</v>
       </c>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="18"/>
+      <c r="AE10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>0.30227055489753002</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>9.0810770141393299E-2</v>
+      </c>
+      <c r="AM10" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN10" s="59">
+        <v>0.1004364</v>
+      </c>
+      <c r="AO10" s="59">
+        <v>0.10938249999999999</v>
+      </c>
+      <c r="AP10" s="59">
+        <v>2.27844E-2</v>
+      </c>
+      <c r="AQ10" s="59">
+        <v>0.11687640000000001</v>
+      </c>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT10" s="59">
+        <v>0.1307787</v>
+      </c>
+      <c r="AU10" s="59">
+        <v>0.1723324</v>
+      </c>
+      <c r="AV10" s="59">
+        <v>0.21327960000000001</v>
+      </c>
+      <c r="AW10" s="59">
+        <v>0.32721660000000002</v>
+      </c>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA10" s="64">
+        <v>0.14441329999999999</v>
+      </c>
+      <c r="BB10" s="64"/>
+      <c r="BC10" s="66"/>
+      <c r="BD10" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE10" s="59">
+        <v>0.1004364</v>
+      </c>
+      <c r="BF10" s="53"/>
     </row>
-    <row r="11" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="12"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="12"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="12"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="12"/>
+    <row r="11" spans="2:62" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="24"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="24"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="24"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="24"/>
+      <c r="AA11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>5.6386762687229801E-2</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>0.29620323358238299</v>
+      </c>
+      <c r="AH11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>7.8943353937913296E-2</v>
+      </c>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="57"/>
+      <c r="AP11" s="57"/>
+      <c r="AQ11" s="57"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="68"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="57"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
+      <c r="AX11" s="51"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA11" s="64">
+        <v>0.10511719999999999</v>
+      </c>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="66"/>
+      <c r="BD11" s="55"/>
+      <c r="BE11" s="57"/>
+      <c r="BF11" s="53"/>
     </row>
-    <row r="12" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="2:62" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="23">
         <v>3.5260802550914898E-2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="23">
         <v>0.32841654941132098</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="23">
         <v>0.25379482373453699</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="23">
         <v>0.14681901094261501</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="23">
         <v>1.4320556697965E-2</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="23">
         <v>7.9660081771658398E-2</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="23">
         <v>3.2952837361022301E-2</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="23">
         <v>0.14681901094261501</v>
       </c>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="18"/>
+      <c r="AM12" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN12" s="59">
+        <v>3.5260800000000002E-2</v>
+      </c>
+      <c r="AO12" s="59">
+        <v>0.3284165</v>
+      </c>
+      <c r="AP12" s="59">
+        <v>0.25379479999999999</v>
+      </c>
+      <c r="AQ12" s="59">
+        <v>0.14681900000000001</v>
+      </c>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT12" s="59">
+        <v>1.9639199999999999E-2</v>
+      </c>
+      <c r="AU12" s="59">
+        <v>1.806E-4</v>
+      </c>
+      <c r="AV12" s="59">
+        <v>0.29218699999999997</v>
+      </c>
+      <c r="AW12" s="59">
+        <v>0.1735717</v>
+      </c>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA12" s="64">
+        <v>9.4803999999999999E-2</v>
+      </c>
+      <c r="BB12" s="64"/>
+      <c r="BC12" s="66"/>
+      <c r="BD12" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE12" s="59">
+        <v>7.0746000000000003E-2</v>
+      </c>
+      <c r="BF12" s="53"/>
     </row>
-    <row r="13" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="12"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="12"/>
+    <row r="13" spans="2:62" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="24"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="24"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="24"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="24"/>
+      <c r="AB13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>0.64473678802982903</v>
+      </c>
+      <c r="AE13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF13" s="19"/>
+      <c r="AH13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI13" s="19"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="57"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="57"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA13" s="64">
+        <v>4.7681599999999998E-2</v>
+      </c>
+      <c r="BB13" s="64"/>
+      <c r="BC13" s="66"/>
+      <c r="BD13" s="55"/>
+      <c r="BE13" s="57"/>
+      <c r="BF13" s="53"/>
     </row>
-    <row r="14" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="2:62" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="23">
         <v>7.0745982153942205E-2</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="23">
         <v>6.3367901543678704E-2</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="23">
         <v>0.17567907802452301</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="23">
         <v>0.17689554046790201</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="23">
         <v>8.6021219991462596E-3</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="23">
         <v>6.3367901543678704E-2</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="23">
         <v>2.2784421935731498E-2</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="23">
         <v>0.11687637685128199</v>
       </c>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="18"/>
+      <c r="AE14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>8.9691707543400903E-2</v>
+      </c>
+      <c r="AH14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>0.53164540094702595</v>
+      </c>
+      <c r="AM14" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN14" s="59">
+        <v>7.0746000000000003E-2</v>
+      </c>
+      <c r="AO14" s="59">
+        <v>6.3367900000000005E-2</v>
+      </c>
+      <c r="AP14" s="59">
+        <v>0.1756791</v>
+      </c>
+      <c r="AQ14" s="59">
+        <v>0.17689550000000001</v>
+      </c>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT14" s="59">
+        <v>1.4837299999999999E-2</v>
+      </c>
+      <c r="AU14" s="59">
+        <v>0.17592289999999999</v>
+      </c>
+      <c r="AV14" s="59">
+        <v>0.18478839999999999</v>
+      </c>
+      <c r="AW14" s="59">
+        <v>0.12803</v>
+      </c>
+      <c r="AX14" s="53"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA14" s="64">
+        <v>2.1164200000000001E-2</v>
+      </c>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="66"/>
+      <c r="BD14" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE14" s="59">
+        <v>3.5260800000000002E-2</v>
+      </c>
+      <c r="BF14" s="53"/>
     </row>
-    <row r="15" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="12"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="12"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="12"/>
+    <row r="15" spans="2:62" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="24"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="24"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="24"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="24"/>
+      <c r="AB15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>6.5970164017254404E-2</v>
+      </c>
+      <c r="AH15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>0.51396759125206304</v>
+      </c>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="53"/>
+      <c r="AS15" s="68"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="51"/>
+      <c r="AY15" s="53"/>
+      <c r="AZ15" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="64">
+        <v>5.5731000000000001E-3</v>
+      </c>
+      <c r="BB15" s="64"/>
+      <c r="BC15" s="66"/>
+      <c r="BD15" s="55"/>
+      <c r="BE15" s="57"/>
+      <c r="BF15" s="53"/>
     </row>
-    <row r="16" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="2:62" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="23">
         <v>5.5731381082868604E-3</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="23">
         <v>0.18626879943943001</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="23">
         <v>2.1164171416878898E-2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="23">
         <v>0.245862572402473</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="23">
         <v>5.5731381082868604E-3</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="23">
         <v>3.2583437586612703E-2</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="23">
         <v>2.1164171416878898E-2</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="23">
         <v>6.75865995342676E-2</v>
       </c>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="18"/>
+      <c r="AE16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>5.29280421492739E-2</v>
+      </c>
+      <c r="AH16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>0.27137388444114102</v>
+      </c>
+      <c r="AM16" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN16" s="59">
+        <v>5.5731000000000001E-3</v>
+      </c>
+      <c r="AO16" s="59">
+        <v>0.18626880000000001</v>
+      </c>
+      <c r="AP16" s="59">
+        <v>2.1164200000000001E-2</v>
+      </c>
+      <c r="AQ16" s="59">
+        <v>0.24586259999999999</v>
+      </c>
+      <c r="AR16" s="51"/>
+      <c r="AS16" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT16" s="59">
+        <v>4.7681599999999998E-2</v>
+      </c>
+      <c r="AU16" s="59">
+        <v>0.10511719999999999</v>
+      </c>
+      <c r="AV16" s="59">
+        <v>0.14441329999999999</v>
+      </c>
+      <c r="AW16" s="59">
+        <v>9.4803999999999999E-2</v>
+      </c>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="BB16" s="66"/>
+      <c r="BC16" s="66"/>
+      <c r="BD16" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE16" s="59">
+        <v>1.4320599999999999E-2</v>
+      </c>
+      <c r="BF16" s="53"/>
     </row>
-    <row r="17" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="12"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="12"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="12"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="12"/>
+    <row r="17" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="24"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="24"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="24"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="24"/>
+      <c r="AA17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC17" s="17">
+        <v>0.266508693144552</v>
+      </c>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="57"/>
+      <c r="AS17" s="55"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="57"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="53"/>
+      <c r="BD17" s="55"/>
+      <c r="BE17" s="57"/>
+      <c r="BF17" s="53"/>
     </row>
-    <row r="18" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:58" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1257,17 +2334,56 @@
       <c r="O18" s="8"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="8"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="18"/>
+      <c r="AE18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF18" s="19"/>
+      <c r="AH18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI18" s="19"/>
+      <c r="BD18" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE18" s="59">
+        <v>8.6020999999999997E-3</v>
+      </c>
+      <c r="BF18" s="53"/>
     </row>
-    <row r="19" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="24" t="s">
+    <row r="19" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="AB19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>0.70175196971332499</v>
+      </c>
+      <c r="AE19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>0.51396759125206304</v>
+      </c>
+      <c r="AH19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI19" s="10">
+        <v>0.294145921192565</v>
+      </c>
+      <c r="BD19" s="55"/>
+      <c r="BE19" s="57"/>
+      <c r="BF19" s="53"/>
     </row>
-    <row r="20" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:58" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
         <v>0</v>
@@ -1299,540 +2415,688 @@
       <c r="R20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="31" t="s">
+      <c r="T20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31" t="s">
+      <c r="U20" s="19"/>
+      <c r="V20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31" t="s">
+      <c r="W20" s="19"/>
+      <c r="X20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Y20" s="31"/>
+      <c r="Y20" s="19"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="18"/>
+      <c r="AE20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF20" s="10">
+        <v>0.50930884110009</v>
+      </c>
+      <c r="AH20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI20" s="10">
+        <v>0.27137388444114102</v>
+      </c>
+      <c r="BD20" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE20" s="59">
+        <v>5.5731000000000001E-3</v>
+      </c>
+      <c r="BF20" s="53"/>
     </row>
-    <row r="21" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
+    <row r="21" spans="2:58" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="23">
         <v>3.5734759413831897E-2</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="23">
         <v>0.107985709108362</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="23">
         <v>9.6512578977891395E-2</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="23">
         <v>0.31482723911594901</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="17">
         <v>0.13077872435724</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="25">
         <v>0.17592287813968299</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="25">
         <v>0.29218703957263498</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="25">
         <v>0.32721658063845699</v>
       </c>
-      <c r="T21" s="32" t="s">
+      <c r="T21" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="U21" s="33"/>
-      <c r="V21" s="34">
+      <c r="U21" s="44"/>
+      <c r="V21" s="41">
         <v>0.32721658063845699</v>
       </c>
-      <c r="W21" s="35"/>
-      <c r="X21" s="36" t="s">
+      <c r="W21" s="42"/>
+      <c r="X21" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="Y21" s="37"/>
+      <c r="Y21" s="48"/>
+      <c r="AB21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>0.62023235190359105</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>0.294145921192565</v>
+      </c>
+      <c r="AH21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI21" s="10">
+        <v>0.21467766871736099</v>
+      </c>
+      <c r="BD21" s="55"/>
+      <c r="BE21" s="57"/>
+      <c r="BF21" s="53"/>
     </row>
-    <row r="22" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="16"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="16"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="16"/>
-      <c r="T22" s="32" t="s">
+    <row r="22" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="26"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="26"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="26"/>
+      <c r="T22" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="33"/>
-      <c r="V22" s="34">
+      <c r="U22" s="44"/>
+      <c r="V22" s="41">
         <v>0.29218703957263498</v>
       </c>
-      <c r="W22" s="35"/>
-      <c r="X22" s="36" t="s">
+      <c r="W22" s="42"/>
+      <c r="X22" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="37"/>
+      <c r="Y22" s="48"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="18"/>
     </row>
-    <row r="23" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="2:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="23">
         <v>4.8480330331128398E-2</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="23">
         <v>0.11984692942684801</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="23">
         <v>0.15111167115534699</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="23">
         <v>6.08370101854614E-2</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="33">
         <v>4.8480330331128398E-2</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="33">
         <v>0.1723323688534</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="N23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O23" s="33">
         <v>0.21327960282209801</v>
       </c>
-      <c r="Q23" s="17" t="s">
+      <c r="Q23" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="19">
+      <c r="R23" s="33">
         <v>0.31482723911594901</v>
       </c>
-      <c r="T23" s="32" t="s">
+      <c r="T23" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="U23" s="33"/>
-      <c r="V23" s="34">
+      <c r="U23" s="44"/>
+      <c r="V23" s="41">
         <v>0.17592287813968299</v>
       </c>
-      <c r="W23" s="35"/>
-      <c r="X23" s="36" t="s">
+      <c r="W23" s="42"/>
+      <c r="X23" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Y23" s="37"/>
+      <c r="Y23" s="48"/>
+      <c r="AE23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF23" s="19"/>
+      <c r="AH23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI23" s="19"/>
     </row>
-    <row r="24" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="20"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="20"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="20"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="20"/>
-      <c r="T24" s="32" t="s">
+    <row r="24" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="34"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="34"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="34"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="34"/>
+      <c r="T24" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="U24" s="33"/>
-      <c r="V24" s="34">
+      <c r="U24" s="46"/>
+      <c r="V24" s="41">
         <v>0.13077872435724</v>
       </c>
-      <c r="W24" s="35"/>
-      <c r="X24" s="36" t="s">
+      <c r="W24" s="42"/>
+      <c r="X24" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="Y24" s="37"/>
+      <c r="Y24" s="48"/>
+      <c r="AE24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF24" s="10">
+        <v>0.64375290542570396</v>
+      </c>
+      <c r="AH24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI24" s="10">
+        <v>0.57169953987187405</v>
+      </c>
     </row>
-    <row r="25" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+    <row r="25" spans="2:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="23">
         <v>0</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="23">
         <v>0</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="23">
         <v>0</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="23">
         <v>0</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="33">
         <v>4.7681575514959197E-2</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="33">
         <v>0.11984692942684801</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="33">
         <v>0.18478842227616701</v>
       </c>
-      <c r="Q25" s="17" t="s">
+      <c r="Q25" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="R25" s="19">
+      <c r="R25" s="33">
         <v>0.17357165334709601</v>
       </c>
+      <c r="AE25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF25" s="10">
+        <v>0.58081232367569102</v>
+      </c>
+      <c r="AH25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI25" s="10">
+        <v>0.41963790962498898</v>
+      </c>
     </row>
-    <row r="26" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="20"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="20"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="20"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="20"/>
+    <row r="26" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="34"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="34"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="34"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="34"/>
+      <c r="AE26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>0.51599378337188995</v>
+      </c>
+      <c r="AH26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI26" s="10">
+        <v>0.30611612107032299</v>
+      </c>
     </row>
-    <row r="27" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="2:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="23">
         <v>0.13077872435724</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="23">
         <v>0.1723323688534</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="23">
         <v>0.21327960282209801</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="23">
         <v>0.32721658063845699</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="23">
         <v>3.5734759413831897E-2</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="23">
         <v>0.107985709108362</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="23">
         <v>0.15111167115534699</v>
       </c>
-      <c r="Q27" s="13" t="s">
+      <c r="Q27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="23">
         <v>0.12803000697554601</v>
       </c>
+      <c r="T27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="28" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="12"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="12"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="12"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="12"/>
+    <row r="28" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="16"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="24"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="24"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="24"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="24"/>
+      <c r="T28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28" s="11">
+        <v>1.0992864811001926</v>
+      </c>
     </row>
-    <row r="29" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+    <row r="29" spans="2:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="23">
         <v>1.9639151306537001E-2</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="23">
         <v>1.8057370237177099E-4</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="23">
         <v>0.29218703957263498</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="23">
         <v>0.17357165334709601</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="23">
         <v>1.9639151306537001E-2</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="23">
         <v>0.10511718459000099</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="23">
         <v>0.144413319981577</v>
       </c>
-      <c r="Q29" s="13" t="s">
+      <c r="Q29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="23">
         <v>9.4803990837682997E-2</v>
       </c>
+      <c r="T29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="11">
+        <v>1.0822926347857154</v>
+      </c>
     </row>
-    <row r="30" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="12"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="12"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="12"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="12"/>
+    <row r="30" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="16"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="24"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="24"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="24"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="24"/>
+      <c r="T30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" s="11">
+        <v>0.68138564382066569</v>
+      </c>
     </row>
-    <row r="31" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
+    <row r="31" spans="2:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="23">
         <v>1.4837299833459E-2</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="23">
         <v>0.17592287813968299</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="23">
         <v>0.18478842227616701</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="23">
         <v>0.12803000697554601</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="23">
         <v>1.4837299833459E-2</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="23">
         <v>1.8057370237177099E-4</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="23">
         <v>9.6512578977891395E-2</v>
       </c>
-      <c r="Q31" s="13" t="s">
+      <c r="Q31" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31" s="23">
         <v>6.08370101854614E-2</v>
       </c>
+      <c r="T31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="12">
+        <v>0.29715184075715545</v>
+      </c>
     </row>
-    <row r="32" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="12"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="12"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="12"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="12"/>
+    <row r="32" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="16"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="24"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="24"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="24"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="24"/>
     </row>
     <row r="33" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="23">
         <v>4.7681575514959197E-2</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="23">
         <v>0.10511718459000099</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="23">
         <v>0.144413319981577</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="23">
         <v>9.4803990837682997E-2</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="23">
         <v>0</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="23">
         <v>0</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="23">
         <v>0</v>
       </c>
-      <c r="Q33" s="13" t="s">
+      <c r="Q33" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="12"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="12"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="12"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="12"/>
-    </row>
-    <row r="35" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="14"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0.16918930513283401</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H39" s="14"/>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H41" s="14"/>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="13"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="14"/>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="13"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H45" s="14"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="13"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H47" s="14"/>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="13"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="8:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H49" s="14"/>
-      <c r="I49" s="10"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="24"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="24"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="24"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="24"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T21:Y24">
-    <sortCondition descending="1" ref="V21:V24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:I17">
+    <sortCondition descending="1" ref="I4:I17"/>
   </sortState>
-  <mergeCells count="213">
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="T22:U22"/>
+  <mergeCells count="329">
+    <mergeCell ref="BD14:BD15"/>
+    <mergeCell ref="BE14:BE15"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="BE16:BE17"/>
+    <mergeCell ref="BD18:BD19"/>
+    <mergeCell ref="BE18:BE19"/>
+    <mergeCell ref="BD20:BD21"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BD10:BD11"/>
+    <mergeCell ref="BE10:BE11"/>
+    <mergeCell ref="BD12:BD13"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="AV16:AV17"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="AS2:AW2"/>
+    <mergeCell ref="AZ4:AZ5"/>
+    <mergeCell ref="BA4:BA5"/>
+    <mergeCell ref="BB4:BB5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="AV10:AV11"/>
+    <mergeCell ref="AW10:AW11"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AU12:AU13"/>
+    <mergeCell ref="AV12:AV13"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AV14:AV15"/>
+    <mergeCell ref="AW14:AW15"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AS6:AS7"/>
+    <mergeCell ref="AT6:AT7"/>
+    <mergeCell ref="AU6:AU7"/>
+    <mergeCell ref="AV6:AV7"/>
+    <mergeCell ref="AW6:AW7"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AS10:AS11"/>
+    <mergeCell ref="AT10:AT11"/>
+    <mergeCell ref="AU10:AU11"/>
+    <mergeCell ref="AS16:AS17"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="AN10:AN11"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L23:L24"/>
     <mergeCell ref="V22:W22"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="V23:W23"/>
@@ -1847,13 +3111,7 @@
     <mergeCell ref="X24:Y24"/>
     <mergeCell ref="T21:U21"/>
     <mergeCell ref="V21:W21"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="T22:U22"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="R21:R22"/>
@@ -1878,14 +3136,6 @@
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L23:L24"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="L29:L30"/>
@@ -1952,7 +3202,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
@@ -1965,9 +3214,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
@@ -1989,11 +3235,7 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="K4:K5"/>
@@ -2013,7 +3255,23 @@
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="Q6:Q7"/>
@@ -2028,16 +3286,42 @@
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="R14:R15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AA17:AA18"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AB13:AB14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AB15:AB16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AC17:AC18"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tareas/Tabla Valores R.docx.xlsx
+++ b/Tareas/Tabla Valores R.docx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Bondleton\Documents\BUAP\Inteligencia de Negocios\Tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253B7765-6658-4F27-A47F-1AAB20F9096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A3DBDB-C0B4-4752-9252-0F310ABBA943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{A1D4D418-366D-478C-9EA9-1CC7C5A952EB}"/>
+    <workbookView xWindow="5115" yWindow="0" windowWidth="15375" windowHeight="7875" xr2:uid="{A1D4D418-366D-478C-9EA9-1CC7C5A952EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="68">
   <si>
     <t>Entire</t>
   </si>
@@ -216,12 +216,63 @@
   <si>
     <t>Hotel2</t>
   </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Variables y</t>
+  </si>
+  <si>
+    <t>R en Simple</t>
+  </si>
+  <si>
+    <t>R en Multiple</t>
+  </si>
+  <si>
+    <t>Variables utilizadas</t>
+  </si>
+  <si>
+    <t>host_id</t>
+  </si>
+  <si>
+    <t>review_scores_communication maximum_nights availability_60</t>
+  </si>
+  <si>
+    <t>number_of_reviews_ltm reviews_per_month number_of_reviews_l30d</t>
+  </si>
+  <si>
+    <t>number_of_reviews_ltm number_of_reviews review_scores_rating</t>
+  </si>
+  <si>
+    <t>host_listings_count maximum_nights price</t>
+  </si>
+  <si>
+    <t>room_type</t>
+  </si>
+  <si>
+    <t>accommodates bedrooms number_of_reviews</t>
+  </si>
+  <si>
+    <t>beds bedrooms price</t>
+  </si>
+  <si>
+    <t>accommodates beds price</t>
+  </si>
+  <si>
+    <t>bedrooms accommodates beds</t>
+  </si>
+  <si>
+    <t>review_scores_rating review_scores_accuracy review_scores_cleanliness</t>
+  </si>
+  <si>
+    <t>number_of_reviews_ltm number_of_reviews_l30d number_of_reviews</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +321,12 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -309,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -538,11 +595,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -580,30 +717,64 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -682,63 +853,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,6 +885,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFBBA43-66F3-4F83-849E-B553016E1CA1}">
-  <dimension ref="B1:BJ34"/>
+  <dimension ref="B1:BY41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+    <sheetView tabSelected="1" topLeftCell="BG32" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="BM20" sqref="BM20:BP41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1107,38 +1273,39 @@
     <col min="21" max="21" width="29.85546875" customWidth="1"/>
     <col min="28" max="29" width="28.28515625" customWidth="1"/>
     <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="70" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:62" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:62" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="AB2" s="21" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="AB2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AM2" s="70" t="s">
+      <c r="AC2" s="29"/>
+      <c r="AM2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="70" t="s">
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="72"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="71"/>
     </row>
-    <row r="3" spans="2:62" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:77" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -1168,123 +1335,151 @@
       <c r="R3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="49" t="s">
+      <c r="AB3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="50">
+      <c r="AC3" s="33">
         <v>0.39186747577049702</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AF3" s="19"/>
-      <c r="AH3" s="19" t="s">
+      <c r="AF3" s="27"/>
+      <c r="AH3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AI3" s="19"/>
+      <c r="AI3" s="27"/>
       <c r="AM3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AN3" s="52" t="s">
+      <c r="AN3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="52" t="s">
+      <c r="AO3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AP3" s="52" t="s">
+      <c r="AP3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AQ3" s="52" t="s">
+      <c r="AQ3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AR3" s="53"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="52" t="s">
+      <c r="AR3" s="17"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AU3" s="52" t="s">
+      <c r="AU3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AV3" s="52" t="s">
+      <c r="AV3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AW3" s="52" t="s">
+      <c r="AW3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AX3" s="53"/>
-      <c r="AY3" s="53"/>
+      <c r="AX3" s="17"/>
+      <c r="AY3" s="17"/>
       <c r="AZ3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BA3" s="52" t="s">
+      <c r="BA3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="BB3" s="52" t="s">
+      <c r="BB3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="BC3" s="52" t="s">
+      <c r="BC3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="BD3" s="52" t="s">
+      <c r="BD3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="52" t="s">
+      <c r="BE3" s="17"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="BH3" s="52" t="s">
+      <c r="BH3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="BI3" s="52" t="s">
+      <c r="BI3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="BJ3" s="52" t="s">
+      <c r="BJ3" s="16" t="s">
         <v>3</v>
       </c>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BY3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="2:62" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:77" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="35">
         <v>8.6021219991462596E-3</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="35">
         <v>7.9660081771658398E-2</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="35">
         <v>0.15323577989833501</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="35">
         <v>6.75865995342676E-2</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="41">
         <v>0.35508354328170799</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="37">
         <v>0.32841654941132098</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="37">
         <v>0.25379482373453699</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="37">
         <v>0.31489284684355101</v>
       </c>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="18"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="31"/>
       <c r="AE4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1297,89 +1492,125 @@
       <c r="AI4" s="10">
         <v>0.15361532160035199</v>
       </c>
-      <c r="AM4" s="67" t="s">
+      <c r="AM4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AN4" s="56">
+      <c r="AN4" s="63">
         <v>8.6020999999999997E-3</v>
       </c>
-      <c r="AO4" s="56">
+      <c r="AO4" s="63">
         <v>7.9660099999999998E-2</v>
       </c>
-      <c r="AP4" s="56">
+      <c r="AP4" s="63">
         <v>0.15323580000000001</v>
       </c>
-      <c r="AQ4" s="56">
+      <c r="AQ4" s="63">
         <v>6.7586599999999997E-2</v>
       </c>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="67" t="s">
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AT4" s="56">
+      <c r="AT4" s="63">
         <v>3.5734799999999997E-2</v>
       </c>
-      <c r="AU4" s="56">
+      <c r="AU4" s="63">
         <v>0.1079857</v>
       </c>
-      <c r="AV4" s="56">
+      <c r="AV4" s="63">
         <v>9.6512600000000004E-2</v>
       </c>
-      <c r="AW4" s="56">
+      <c r="AW4" s="63">
         <v>0.31482719999999997</v>
       </c>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="54" t="s">
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="BA4" s="56">
+      <c r="BA4" s="63">
         <v>8.6020999999999997E-3</v>
       </c>
-      <c r="BB4" s="56">
+      <c r="BB4" s="63">
         <v>7.9660099999999998E-2</v>
       </c>
-      <c r="BC4" s="56">
+      <c r="BC4" s="63">
         <v>0.15323580000000001</v>
       </c>
-      <c r="BD4" s="56">
+      <c r="BD4" s="63">
         <v>6.7586599999999997E-2</v>
       </c>
-      <c r="BE4" s="51"/>
-      <c r="BF4" s="54" t="s">
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="BG4" s="56">
+      <c r="BG4" s="63">
         <v>3.5734799999999997E-2</v>
       </c>
-      <c r="BH4" s="56">
+      <c r="BH4" s="63">
         <v>0.1079857</v>
       </c>
-      <c r="BI4" s="56">
+      <c r="BI4" s="63">
         <v>9.6512600000000004E-2</v>
       </c>
-      <c r="BJ4" s="56">
+      <c r="BJ4" s="63">
         <v>0.31482719999999997</v>
       </c>
+      <c r="BM4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO4" s="24">
+        <v>7.3996502888196107E-5</v>
+      </c>
+      <c r="BP4" s="5">
+        <v>6.3457286278673E-3</v>
+      </c>
+      <c r="BQ4" s="5">
+        <v>2.3481204241051198E-2</v>
+      </c>
+      <c r="BR4" s="5">
+        <v>4.5679484366054597E-3</v>
+      </c>
+      <c r="BT4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV4" s="5">
+        <v>1.27697303036444E-3</v>
+      </c>
+      <c r="BW4" s="5">
+        <v>1.16609133716358E-2</v>
+      </c>
+      <c r="BX4" s="5">
+        <v>9.3146779009637398E-3</v>
+      </c>
+      <c r="BY4" s="5">
+        <v>9.9116190489371106E-2</v>
+      </c>
     </row>
-    <row r="5" spans="2:62" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="30"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="26"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="26"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="26"/>
-      <c r="AB5" s="15" t="s">
+    <row r="5" spans="2:77" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="42"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="38"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="38"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="38"/>
+      <c r="AB5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="17">
+      <c r="AC5" s="30">
         <v>0.17262721635213199</v>
       </c>
       <c r="AE5" s="10" t="s">
@@ -1394,73 +1625,105 @@
       <c r="AI5" s="10">
         <v>0.13644579679594601</v>
       </c>
-      <c r="AM5" s="68"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="68"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="57"/>
-      <c r="AV5" s="57"/>
-      <c r="AW5" s="57"/>
-      <c r="AX5" s="51"/>
-      <c r="AY5" s="53"/>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="57"/>
-      <c r="BB5" s="57"/>
-      <c r="BC5" s="57"/>
-      <c r="BD5" s="57"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="55"/>
-      <c r="BG5" s="57"/>
-      <c r="BH5" s="57"/>
-      <c r="BI5" s="57"/>
-      <c r="BJ5" s="57"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="68"/>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="64"/>
+      <c r="BD5" s="64"/>
+      <c r="BE5" s="17"/>
+      <c r="BF5" s="68"/>
+      <c r="BG5" s="64"/>
+      <c r="BH5" s="64"/>
+      <c r="BI5" s="64"/>
+      <c r="BJ5" s="64"/>
+      <c r="BM5" s="26"/>
+      <c r="BN5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO5" s="5">
+        <v>8.6021219991462596E-3</v>
+      </c>
+      <c r="BP5" s="5">
+        <v>7.9660081771658398E-2</v>
+      </c>
+      <c r="BQ5" s="5">
+        <v>0.15323577989833501</v>
+      </c>
+      <c r="BR5" s="5">
+        <v>6.75865995342676E-2</v>
+      </c>
+      <c r="BT5" s="26"/>
+      <c r="BU5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV5" s="5">
+        <v>3.5734759413831897E-2</v>
+      </c>
+      <c r="BW5" s="5">
+        <v>0.107985709108362</v>
+      </c>
+      <c r="BX5" s="5">
+        <v>9.6512578977891395E-2</v>
+      </c>
+      <c r="BY5" s="5">
+        <v>0.31482723911594901</v>
+      </c>
     </row>
-    <row r="6" spans="2:62" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="35">
         <v>1.4320556697965E-2</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="35">
         <v>0.113437457470075</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="35">
         <v>7.3277972188698498E-2</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="35">
         <v>0.249640072906367</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="35">
         <v>0.100436437325837</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="35">
         <v>0.18626879943943001</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="35">
         <v>0.17567907802452301</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="35">
         <v>0.249640072906367</v>
       </c>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="18"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="31"/>
       <c r="AE6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1473,209 +1736,312 @@
       <c r="AI6" s="10">
         <v>0.12095948215436</v>
       </c>
-      <c r="AM6" s="69" t="s">
+      <c r="AM6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AN6" s="59">
+      <c r="AN6" s="66">
         <v>1.4320599999999999E-2</v>
       </c>
-      <c r="AO6" s="59">
+      <c r="AO6" s="66">
         <v>0.1134375</v>
       </c>
-      <c r="AP6" s="59">
+      <c r="AP6" s="66">
         <v>7.3277999999999996E-2</v>
       </c>
-      <c r="AQ6" s="59">
+      <c r="AQ6" s="66">
         <v>0.2496401</v>
       </c>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="69" t="s">
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AT6" s="59">
+      <c r="AT6" s="66">
         <v>4.8480299999999997E-2</v>
       </c>
-      <c r="AU6" s="59">
+      <c r="AU6" s="66">
         <v>0.11984690000000001</v>
       </c>
-      <c r="AV6" s="59">
+      <c r="AV6" s="66">
         <v>0.15111169999999999</v>
       </c>
-      <c r="AW6" s="59">
+      <c r="AW6" s="66">
         <v>6.0837000000000002E-2</v>
       </c>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
+      <c r="AX6" s="17"/>
+      <c r="AY6" s="17"/>
+      <c r="BM6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO6" s="5">
+        <v>2.0507834413962999E-4</v>
+      </c>
+      <c r="BP6" s="5">
+        <v>1.2868056757275001E-2</v>
+      </c>
+      <c r="BQ6" s="5">
+        <v>5.3696612080876803E-3</v>
+      </c>
+      <c r="BR6" s="5">
+        <v>6.2320166000696203E-2</v>
+      </c>
+      <c r="BT6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="BU6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV6" s="5">
+        <v>2.3503424290153199E-3</v>
+      </c>
+      <c r="BW6" s="5">
+        <v>1.43632864930439E-2</v>
+      </c>
+      <c r="BX6" s="5">
+        <v>2.2834737159362E-2</v>
+      </c>
+      <c r="BY6" s="5">
+        <v>3.7011418083059402E-3</v>
+      </c>
     </row>
-    <row r="7" spans="2:62" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="24"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="24"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="24"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="24"/>
-      <c r="AB7" s="15" t="s">
+    <row r="7" spans="2:77" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="36"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="36"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="36"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="36"/>
+      <c r="AB7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AC7" s="17">
+      <c r="AC7" s="30">
         <v>0.48514891789402897</v>
       </c>
-      <c r="AM7" s="68"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="68"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="51"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="62" t="s">
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="64"/>
+      <c r="AV7" s="64"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="17"/>
+      <c r="AZ7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="BA7" s="63" t="s">
+      <c r="BA7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="BB7" s="63"/>
-      <c r="BC7" s="65"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="23"/>
       <c r="BD7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BE7" s="52" t="s">
+      <c r="BE7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="BF7" s="53"/>
+      <c r="BF7" s="17"/>
+      <c r="BM7" s="26"/>
+      <c r="BN7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO7" s="5">
+        <v>1.4320556697965E-2</v>
+      </c>
+      <c r="BP7" s="5">
+        <v>0.113437457470075</v>
+      </c>
+      <c r="BQ7" s="5">
+        <v>7.3277972188698498E-2</v>
+      </c>
+      <c r="BR7" s="5">
+        <v>0.249640072906367</v>
+      </c>
+      <c r="BT7" s="26"/>
+      <c r="BU7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV7" s="5">
+        <v>4.8480330331128398E-2</v>
+      </c>
+      <c r="BW7" s="5">
+        <v>0.11984692942684801</v>
+      </c>
+      <c r="BX7" s="5">
+        <v>0.15111167115534699</v>
+      </c>
+      <c r="BY7" s="5">
+        <v>6.08370101854614E-2</v>
+      </c>
     </row>
-    <row r="8" spans="2:62" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="35">
         <v>0.35508354328170799</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="35">
         <v>3.2583437586612703E-2</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="35">
         <v>3.2952837361022301E-2</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="35">
         <v>0.31489284684355101</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="35">
         <v>7.0745982153942205E-2</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="35">
         <v>0.113437457470075</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="35">
         <v>0.15323577989833501</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="35">
         <v>0.245862572402473</v>
       </c>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="18"/>
-      <c r="AE8" s="19" t="s">
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="31"/>
+      <c r="AE8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AF8" s="19"/>
-      <c r="AH8" s="19" t="s">
+      <c r="AF8" s="27"/>
+      <c r="AH8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="AI8" s="19"/>
-      <c r="AM8" s="69" t="s">
+      <c r="AI8" s="27"/>
+      <c r="AM8" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AN8" s="59">
+      <c r="AN8" s="66">
         <v>0.1004364</v>
       </c>
-      <c r="AO8" s="59">
+      <c r="AO8" s="66">
         <v>3.2583399999999998E-2</v>
       </c>
-      <c r="AP8" s="59">
+      <c r="AP8" s="66">
         <v>3.2952799999999997E-2</v>
       </c>
-      <c r="AQ8" s="59">
+      <c r="AQ8" s="66">
         <v>0.31489279999999997</v>
       </c>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="69" t="s">
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AT8" s="59">
+      <c r="AT8" s="66">
         <v>0</v>
       </c>
-      <c r="AU8" s="59">
+      <c r="AU8" s="66">
         <v>0</v>
       </c>
-      <c r="AV8" s="59">
+      <c r="AV8" s="66">
         <v>0</v>
       </c>
-      <c r="AW8" s="59">
+      <c r="AW8" s="66">
         <v>0</v>
       </c>
-      <c r="AX8" s="53"/>
-      <c r="AY8" s="53"/>
-      <c r="AZ8" s="61" t="s">
+      <c r="AX8" s="17"/>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="BA8" s="64">
+      <c r="BA8" s="22">
         <v>0.24586259999999999</v>
       </c>
-      <c r="BB8" s="64"/>
-      <c r="BC8" s="66"/>
-      <c r="BD8" s="54" t="s">
+      <c r="BB8" s="22"/>
+      <c r="BD8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="BE8" s="56">
+      <c r="BE8" s="63">
         <v>0.1004364</v>
       </c>
-      <c r="BF8" s="53"/>
+      <c r="BF8" s="17"/>
+      <c r="BM8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO8" s="5">
+        <v>0.12608432270949299</v>
+      </c>
+      <c r="BP8" s="5">
+        <v>1.06168040496068E-3</v>
+      </c>
+      <c r="BQ8" s="5">
+        <v>1.08588949014198E-3</v>
+      </c>
+      <c r="BR8" s="5">
+        <v>9.9157504993236098E-2</v>
+      </c>
+      <c r="BT8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="2:62" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="24"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="24"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="24"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="24"/>
-      <c r="AA9" s="20" t="s">
+    <row r="9" spans="2:77" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="36"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="36"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="36"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="36"/>
+      <c r="AA9" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AB9" s="15" t="s">
+      <c r="AB9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AC9" s="17">
+      <c r="AC9" s="30">
         <v>0.87227614333884296</v>
       </c>
       <c r="AE9" s="10" t="s">
@@ -1690,74 +2056,105 @@
       <c r="AI9" s="10">
         <v>0.875681574044751</v>
       </c>
-      <c r="AM9" s="68"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="53"/>
-      <c r="AS9" s="68"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="57"/>
-      <c r="AX9" s="51"/>
-      <c r="AY9" s="53"/>
-      <c r="AZ9" s="61" t="s">
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="BA9" s="64">
+      <c r="BA9" s="22">
         <v>0.18626880000000001</v>
       </c>
-      <c r="BB9" s="64"/>
-      <c r="BC9" s="66"/>
-      <c r="BD9" s="55"/>
-      <c r="BE9" s="57"/>
-      <c r="BF9" s="53"/>
+      <c r="BB9" s="22"/>
+      <c r="BD9" s="68"/>
+      <c r="BE9" s="64"/>
+      <c r="BF9" s="17"/>
+      <c r="BM9" s="26"/>
+      <c r="BN9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO9" s="5">
+        <v>0.35508354328170799</v>
+      </c>
+      <c r="BP9" s="5">
+        <v>3.2583437586612703E-2</v>
+      </c>
+      <c r="BQ9" s="5">
+        <v>3.2952837361022301E-2</v>
+      </c>
+      <c r="BR9" s="5">
+        <v>0.31489284684355101</v>
+      </c>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="2:62" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="35">
         <v>0.100436437325837</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="35">
         <v>0.10938248051499801</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="35">
         <v>2.2784421935731498E-2</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="35">
         <v>0.11687637685128199</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="35">
         <v>3.5260802550914898E-2</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="35">
         <v>0.10938248051499801</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="35">
         <v>7.3277972188698498E-2</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="35">
         <v>0.17689554046790201</v>
       </c>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="18"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="31"/>
       <c r="AE10" s="10" t="s">
         <v>29</v>
       </c>
@@ -1770,76 +2167,111 @@
       <c r="AI10" s="10">
         <v>9.0810770141393299E-2</v>
       </c>
-      <c r="AM10" s="69" t="s">
+      <c r="AM10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AN10" s="59">
+      <c r="AN10" s="66">
         <v>0.1004364</v>
       </c>
-      <c r="AO10" s="59">
+      <c r="AO10" s="66">
         <v>0.10938249999999999</v>
       </c>
-      <c r="AP10" s="59">
+      <c r="AP10" s="66">
         <v>2.27844E-2</v>
       </c>
-      <c r="AQ10" s="59">
+      <c r="AQ10" s="66">
         <v>0.11687640000000001</v>
       </c>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="69" t="s">
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AT10" s="59">
+      <c r="AT10" s="66">
         <v>0.1307787</v>
       </c>
-      <c r="AU10" s="59">
+      <c r="AU10" s="66">
         <v>0.1723324</v>
       </c>
-      <c r="AV10" s="59">
+      <c r="AV10" s="66">
         <v>0.21327960000000001</v>
       </c>
-      <c r="AW10" s="59">
+      <c r="AW10" s="66">
         <v>0.32721660000000002</v>
       </c>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="53"/>
-      <c r="AZ10" s="61" t="s">
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="17"/>
+      <c r="AZ10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="BA10" s="64">
+      <c r="BA10" s="22">
         <v>0.14441329999999999</v>
       </c>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="66"/>
-      <c r="BD10" s="58" t="s">
+      <c r="BB10" s="22"/>
+      <c r="BD10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="BE10" s="59">
+      <c r="BE10" s="66">
         <v>0.1004364</v>
       </c>
-      <c r="BF10" s="53"/>
+      <c r="BF10" s="17"/>
+      <c r="BM10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO10" s="5">
+        <v>1.0087477942706801E-2</v>
+      </c>
+      <c r="BP10" s="5">
+        <v>1.1964527043614E-2</v>
+      </c>
+      <c r="BQ10" s="5">
+        <v>5.1912988294544604E-4</v>
+      </c>
+      <c r="BR10" s="5">
+        <v>1.36600874658829E-2</v>
+      </c>
+      <c r="BT10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV10" s="5">
+        <v>1.7103074744507001E-2</v>
+      </c>
+      <c r="BW10" s="5">
+        <v>2.96984453546244E-2</v>
+      </c>
+      <c r="BX10" s="5">
+        <v>4.5488188979951799E-2</v>
+      </c>
+      <c r="BY10" s="5">
+        <v>0.10707069064472299</v>
+      </c>
     </row>
-    <row r="11" spans="2:62" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="24"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="24"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="24"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="24"/>
-      <c r="AA11" s="20" t="s">
+    <row r="11" spans="2:77" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="26"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="36"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="36"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="36"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="36"/>
+      <c r="AA11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AB11" s="15" t="s">
+      <c r="AB11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AC11" s="17">
+      <c r="AC11" s="30">
         <v>5.6386762687229801E-2</v>
       </c>
       <c r="AE11" s="10" t="s">
@@ -1854,218 +2286,315 @@
       <c r="AI11" s="10">
         <v>7.8943353937913296E-2</v>
       </c>
-      <c r="AM11" s="68"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="57"/>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="57"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="68"/>
-      <c r="AT11" s="57"/>
-      <c r="AU11" s="57"/>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="57"/>
-      <c r="AX11" s="51"/>
-      <c r="AY11" s="53"/>
-      <c r="AZ11" s="61" t="s">
+      <c r="AM11" s="62"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="62"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="17"/>
+      <c r="AZ11" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="BA11" s="64">
+      <c r="BA11" s="22">
         <v>0.10511719999999999</v>
       </c>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="66"/>
-      <c r="BD11" s="55"/>
-      <c r="BE11" s="57"/>
-      <c r="BF11" s="53"/>
+      <c r="BB11" s="22"/>
+      <c r="BD11" s="68"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="17"/>
+      <c r="BM11" s="26"/>
+      <c r="BN11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO11" s="5">
+        <v>0.100436437325837</v>
+      </c>
+      <c r="BP11" s="5">
+        <v>0.10938248051499801</v>
+      </c>
+      <c r="BQ11" s="5">
+        <v>2.2784421935731498E-2</v>
+      </c>
+      <c r="BR11" s="5">
+        <v>0.11687637685128199</v>
+      </c>
+      <c r="BT11" s="26"/>
+      <c r="BU11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV11" s="5">
+        <v>0.13077872435724</v>
+      </c>
+      <c r="BW11" s="5">
+        <v>0.1723323688534</v>
+      </c>
+      <c r="BX11" s="5">
+        <v>0.21327960282209801</v>
+      </c>
+      <c r="BY11" s="5">
+        <v>0.32721658063845699</v>
+      </c>
     </row>
-    <row r="12" spans="2:62" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="2:77" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="35">
         <v>3.5260802550914898E-2</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="35">
         <v>0.32841654941132098</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="35">
         <v>0.25379482373453699</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="35">
         <v>0.14681901094261501</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="35">
         <v>1.4320556697965E-2</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="35">
         <v>7.9660081771658398E-2</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="35">
         <v>3.2952837361022301E-2</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="35">
         <v>0.14681901094261501</v>
       </c>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="18"/>
-      <c r="AM12" s="69" t="s">
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="31"/>
+      <c r="AM12" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AN12" s="59">
+      <c r="AN12" s="66">
         <v>3.5260800000000002E-2</v>
       </c>
-      <c r="AO12" s="59">
+      <c r="AO12" s="66">
         <v>0.3284165</v>
       </c>
-      <c r="AP12" s="59">
+      <c r="AP12" s="66">
         <v>0.25379479999999999</v>
       </c>
-      <c r="AQ12" s="59">
+      <c r="AQ12" s="66">
         <v>0.14681900000000001</v>
       </c>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="69" t="s">
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AT12" s="59">
+      <c r="AT12" s="66">
         <v>1.9639199999999999E-2</v>
       </c>
-      <c r="AU12" s="59">
+      <c r="AU12" s="66">
         <v>1.806E-4</v>
       </c>
-      <c r="AV12" s="59">
+      <c r="AV12" s="66">
         <v>0.29218699999999997</v>
       </c>
-      <c r="AW12" s="59">
+      <c r="AW12" s="66">
         <v>0.1735717</v>
       </c>
-      <c r="AX12" s="53"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="61" t="s">
+      <c r="AX12" s="17"/>
+      <c r="AY12" s="17"/>
+      <c r="AZ12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BA12" s="64">
+      <c r="BA12" s="22">
         <v>9.4803999999999999E-2</v>
       </c>
-      <c r="BB12" s="64"/>
-      <c r="BC12" s="66"/>
-      <c r="BD12" s="58" t="s">
+      <c r="BB12" s="22"/>
+      <c r="BD12" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="BE12" s="59">
+      <c r="BE12" s="66">
         <v>7.0746000000000003E-2</v>
       </c>
-      <c r="BF12" s="53"/>
+      <c r="BF12" s="17"/>
+      <c r="BM12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="BN12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO12" s="5">
+        <v>1.2433241965346101E-3</v>
+      </c>
+      <c r="BP12" s="5">
+        <v>0.107857429927238</v>
+      </c>
+      <c r="BQ12" s="5">
+        <v>6.44118125544451E-2</v>
+      </c>
+      <c r="BR12" s="5">
+        <v>2.1555821974167701E-2</v>
+      </c>
+      <c r="BT12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="BU12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV12" s="5">
+        <v>3.8569626404105702E-4</v>
+      </c>
+      <c r="BW12" s="24">
+        <v>3.2606861988249103E-8</v>
+      </c>
+      <c r="BX12" s="5">
+        <v>8.5373266094220801E-2</v>
+      </c>
+      <c r="BY12" s="5">
+        <v>3.01271188456445E-2</v>
+      </c>
     </row>
-    <row r="13" spans="2:62" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="24"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="24"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="24"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="24"/>
-      <c r="AB13" s="15" t="s">
+    <row r="13" spans="2:77" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="26"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="36"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="36"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="36"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="36"/>
+      <c r="AB13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AC13" s="17">
+      <c r="AC13" s="30">
         <v>0.64473678802982903</v>
       </c>
-      <c r="AE13" s="19" t="s">
+      <c r="AE13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AF13" s="19"/>
-      <c r="AH13" s="19" t="s">
+      <c r="AF13" s="27"/>
+      <c r="AH13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AI13" s="19"/>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="57"/>
-      <c r="AO13" s="57"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="57"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="57"/>
-      <c r="AU13" s="57"/>
-      <c r="AV13" s="57"/>
-      <c r="AW13" s="57"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="61" t="s">
+      <c r="AI13" s="27"/>
+      <c r="AM13" s="62"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="62"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="17"/>
+      <c r="AZ13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BA13" s="64">
+      <c r="BA13" s="22">
         <v>4.7681599999999998E-2</v>
       </c>
-      <c r="BB13" s="64"/>
-      <c r="BC13" s="66"/>
-      <c r="BD13" s="55"/>
-      <c r="BE13" s="57"/>
-      <c r="BF13" s="53"/>
+      <c r="BB13" s="22"/>
+      <c r="BD13" s="68"/>
+      <c r="BE13" s="64"/>
+      <c r="BF13" s="17"/>
+      <c r="BM13" s="26"/>
+      <c r="BN13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO13" s="5">
+        <v>3.5260802550914898E-2</v>
+      </c>
+      <c r="BP13" s="5">
+        <v>0.32841654941132098</v>
+      </c>
+      <c r="BQ13" s="5">
+        <v>0.25379482373453699</v>
+      </c>
+      <c r="BR13" s="5">
+        <v>0.14681901094261501</v>
+      </c>
+      <c r="BT13" s="26"/>
+      <c r="BU13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV13" s="5">
+        <v>1.9639151306537001E-2</v>
+      </c>
+      <c r="BW13" s="5">
+        <v>1.8057370237177099E-4</v>
+      </c>
+      <c r="BX13" s="5">
+        <v>0.29218703957263498</v>
+      </c>
+      <c r="BY13" s="5">
+        <v>0.17357165334709601</v>
+      </c>
     </row>
-    <row r="14" spans="2:62" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="2:77" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="35">
         <v>7.0745982153942205E-2</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="35">
         <v>6.3367901543678704E-2</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="35">
         <v>0.17567907802452301</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="35">
         <v>0.17689554046790201</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="35">
         <v>8.6021219991462596E-3</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="35">
         <v>6.3367901543678704E-2</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="35">
         <v>2.2784421935731498E-2</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="35">
         <v>0.11687637685128199</v>
       </c>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="18"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="31"/>
       <c r="AE14" s="10" t="s">
         <v>35</v>
       </c>
@@ -2078,74 +2607,109 @@
       <c r="AI14" s="10">
         <v>0.53164540094702595</v>
       </c>
-      <c r="AM14" s="69" t="s">
+      <c r="AM14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AN14" s="59">
+      <c r="AN14" s="66">
         <v>7.0746000000000003E-2</v>
       </c>
-      <c r="AO14" s="59">
+      <c r="AO14" s="66">
         <v>6.3367900000000005E-2</v>
       </c>
-      <c r="AP14" s="59">
+      <c r="AP14" s="66">
         <v>0.1756791</v>
       </c>
-      <c r="AQ14" s="59">
+      <c r="AQ14" s="66">
         <v>0.17689550000000001</v>
       </c>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="69" t="s">
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AT14" s="59">
+      <c r="AT14" s="66">
         <v>1.4837299999999999E-2</v>
       </c>
-      <c r="AU14" s="59">
+      <c r="AU14" s="66">
         <v>0.17592289999999999</v>
       </c>
-      <c r="AV14" s="59">
+      <c r="AV14" s="66">
         <v>0.18478839999999999</v>
       </c>
-      <c r="AW14" s="59">
+      <c r="AW14" s="66">
         <v>0.12803</v>
       </c>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="53"/>
-      <c r="AZ14" s="61" t="s">
+      <c r="AX14" s="17"/>
+      <c r="AY14" s="17"/>
+      <c r="AZ14" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="BA14" s="64">
+      <c r="BA14" s="22">
         <v>2.1164200000000001E-2</v>
       </c>
-      <c r="BB14" s="64"/>
-      <c r="BC14" s="66"/>
-      <c r="BD14" s="58" t="s">
+      <c r="BB14" s="22"/>
+      <c r="BD14" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="BE14" s="59">
+      <c r="BE14" s="66">
         <v>3.5260800000000002E-2</v>
       </c>
-      <c r="BF14" s="53"/>
+      <c r="BF14" s="17"/>
+      <c r="BM14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO14" s="5">
+        <v>5.00499399092591E-3</v>
+      </c>
+      <c r="BP14" s="5">
+        <v>4.0154909460493604E-3</v>
+      </c>
+      <c r="BQ14" s="5">
+        <v>3.0863138455546599E-2</v>
+      </c>
+      <c r="BR14" s="5">
+        <v>3.1292032237431301E-2</v>
+      </c>
+      <c r="BT14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV14" s="5">
+        <v>2.2014546634796501E-4</v>
+      </c>
+      <c r="BW14" s="5">
+        <v>3.0948859052949699E-2</v>
+      </c>
+      <c r="BX14" s="5">
+        <v>3.4146761007315098E-2</v>
+      </c>
+      <c r="BY14" s="5">
+        <v>1.6391682686158499E-2</v>
+      </c>
     </row>
-    <row r="15" spans="2:62" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="24"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="24"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="24"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="24"/>
-      <c r="AB15" s="15" t="s">
+    <row r="15" spans="2:77" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="26"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="36"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="36"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="36"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="36"/>
+      <c r="AB15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AC15" s="17">
-        <v>1</v>
+      <c r="AC15" s="30">
+        <v>0.582321266</v>
       </c>
       <c r="AE15" s="10" t="s">
         <v>37</v>
@@ -2159,73 +2723,104 @@
       <c r="AI15" s="10">
         <v>0.51396759125206304</v>
       </c>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="57"/>
-      <c r="AO15" s="57"/>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
-      <c r="AR15" s="53"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="57"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="57"/>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="53"/>
-      <c r="AZ15" s="61" t="s">
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="64"/>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="64"/>
+      <c r="AW15" s="64"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BA15" s="64">
+      <c r="BA15" s="22">
         <v>5.5731000000000001E-3</v>
       </c>
-      <c r="BB15" s="64"/>
-      <c r="BC15" s="66"/>
-      <c r="BD15" s="55"/>
-      <c r="BE15" s="57"/>
-      <c r="BF15" s="53"/>
+      <c r="BB15" s="22"/>
+      <c r="BD15" s="68"/>
+      <c r="BE15" s="64"/>
+      <c r="BF15" s="17"/>
+      <c r="BM15" s="26"/>
+      <c r="BN15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO15" s="5">
+        <v>7.0745982153942205E-2</v>
+      </c>
+      <c r="BP15" s="5">
+        <v>6.3367901543678704E-2</v>
+      </c>
+      <c r="BQ15" s="5">
+        <v>0.17567907802452301</v>
+      </c>
+      <c r="BR15" s="5">
+        <v>0.17689554046790201</v>
+      </c>
+      <c r="BT15" s="26"/>
+      <c r="BU15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV15" s="5">
+        <v>1.4837299833459E-2</v>
+      </c>
+      <c r="BW15" s="5">
+        <v>0.17592287813968299</v>
+      </c>
+      <c r="BX15" s="5">
+        <v>0.18478842227616701</v>
+      </c>
+      <c r="BY15" s="5">
+        <v>0.12803000697554601</v>
+      </c>
     </row>
-    <row r="16" spans="2:62" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="2:77" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="35">
         <v>5.5731381082868604E-3</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="35">
         <v>0.18626879943943001</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="35">
         <v>2.1164171416878898E-2</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="35">
         <v>0.245862572402473</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="35">
         <v>5.5731381082868604E-3</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="35">
         <v>3.2583437586612703E-2</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="35">
         <v>2.1164171416878898E-2</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="35">
         <v>6.75865995342676E-2</v>
       </c>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="18"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="31"/>
       <c r="AE16" s="10" t="s">
         <v>29</v>
       </c>
@@ -2238,89 +2833,155 @@
       <c r="AI16" s="10">
         <v>0.27137388444114102</v>
       </c>
-      <c r="AM16" s="58" t="s">
+      <c r="AM16" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AN16" s="59">
+      <c r="AN16" s="66">
         <v>5.5731000000000001E-3</v>
       </c>
-      <c r="AO16" s="59">
+      <c r="AO16" s="66">
         <v>0.18626880000000001</v>
       </c>
-      <c r="AP16" s="59">
+      <c r="AP16" s="66">
         <v>2.1164200000000001E-2</v>
       </c>
-      <c r="AQ16" s="59">
+      <c r="AQ16" s="66">
         <v>0.24586259999999999</v>
       </c>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="58" t="s">
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AT16" s="59">
+      <c r="AT16" s="66">
         <v>4.7681599999999998E-2</v>
       </c>
-      <c r="AU16" s="59">
+      <c r="AU16" s="66">
         <v>0.10511719999999999</v>
       </c>
-      <c r="AV16" s="59">
+      <c r="AV16" s="66">
         <v>0.14441329999999999</v>
       </c>
-      <c r="AW16" s="59">
+      <c r="AW16" s="66">
         <v>9.4803999999999999E-2</v>
       </c>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="53"/>
-      <c r="BB16" s="66"/>
-      <c r="BC16" s="66"/>
-      <c r="BD16" s="58" t="s">
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="BD16" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="BE16" s="59">
+      <c r="BE16" s="66">
         <v>1.4320599999999999E-2</v>
       </c>
-      <c r="BF16" s="53"/>
+      <c r="BF16" s="17"/>
+      <c r="BM16" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO16" s="24">
+        <v>3.1059868374039202E-5</v>
+      </c>
+      <c r="BP16" s="5">
+        <v>3.4696065644606797E-2</v>
+      </c>
+      <c r="BQ16" s="5">
+        <v>4.4792215176303602E-4</v>
+      </c>
+      <c r="BR16" s="5">
+        <v>6.0448404508361697E-2</v>
+      </c>
+      <c r="BT16" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="BU16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV16" s="5">
+        <v>2.27353264358876E-3</v>
+      </c>
+      <c r="BW16" s="5">
+        <v>1.10496224961285E-2</v>
+      </c>
+      <c r="BX16" s="5">
+        <v>2.0855206988101501E-2</v>
+      </c>
+      <c r="BY16" s="5">
+        <v>8.9877966787514901E-3</v>
+      </c>
     </row>
-    <row r="17" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="24"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="24"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="24"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="24"/>
-      <c r="AA17" s="20" t="s">
+    <row r="17" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="26"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="36"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="36"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="36"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="36"/>
+      <c r="AA17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AB17" s="15" t="s">
+      <c r="AB17" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AC17" s="17">
+      <c r="AC17" s="30">
         <v>0.266508693144552</v>
       </c>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="57"/>
-      <c r="AO17" s="57"/>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="57"/>
-      <c r="AS17" s="55"/>
-      <c r="AT17" s="57"/>
-      <c r="AU17" s="57"/>
-      <c r="AV17" s="57"/>
-      <c r="AW17" s="57"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="53"/>
-      <c r="BD17" s="55"/>
-      <c r="BE17" s="57"/>
-      <c r="BF17" s="53"/>
+      <c r="AM17" s="68"/>
+      <c r="AN17" s="64"/>
+      <c r="AO17" s="64"/>
+      <c r="AP17" s="64"/>
+      <c r="AQ17" s="64"/>
+      <c r="AS17" s="68"/>
+      <c r="AT17" s="64"/>
+      <c r="AU17" s="64"/>
+      <c r="AV17" s="64"/>
+      <c r="AW17" s="64"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="17"/>
+      <c r="BD17" s="68"/>
+      <c r="BE17" s="64"/>
+      <c r="BF17" s="17"/>
+      <c r="BM17" s="26"/>
+      <c r="BN17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO17" s="5">
+        <v>5.5731381082868604E-3</v>
+      </c>
+      <c r="BP17" s="5">
+        <v>0.18626879943943001</v>
+      </c>
+      <c r="BQ17" s="5">
+        <v>2.1164171416878898E-2</v>
+      </c>
+      <c r="BR17" s="5">
+        <v>0.245862572402473</v>
+      </c>
+      <c r="BT17" s="26"/>
+      <c r="BU17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV17" s="5">
+        <v>4.7681575514959197E-2</v>
+      </c>
+      <c r="BW17" s="5">
+        <v>0.10511718459000099</v>
+      </c>
+      <c r="BX17" s="5">
+        <v>0.144413319981577</v>
+      </c>
+      <c r="BY17" s="5">
+        <v>9.4803990837682997E-2</v>
+      </c>
     </row>
-    <row r="18" spans="2:58" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:77" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2334,37 +2995,37 @@
       <c r="O18" s="8"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="8"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="18"/>
-      <c r="AE18" s="19" t="s">
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="31"/>
+      <c r="AE18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AF18" s="19"/>
-      <c r="AH18" s="19" t="s">
+      <c r="AF18" s="27"/>
+      <c r="AH18" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AI18" s="19"/>
-      <c r="BD18" s="58" t="s">
+      <c r="AI18" s="27"/>
+      <c r="BD18" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="BE18" s="59">
+      <c r="BE18" s="66">
         <v>8.6020999999999997E-3</v>
       </c>
-      <c r="BF18" s="53"/>
+      <c r="BF18" s="17"/>
     </row>
-    <row r="19" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38" t="s">
+    <row r="19" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="AB19" s="15" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="AB19" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AC19" s="17">
+      <c r="AC19" s="30">
         <v>0.70175196971332499</v>
       </c>
       <c r="AE19" s="10" t="s">
@@ -2379,11 +3040,11 @@
       <c r="AI19" s="10">
         <v>0.294145921192565</v>
       </c>
-      <c r="BD19" s="55"/>
-      <c r="BE19" s="57"/>
-      <c r="BF19" s="53"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="64"/>
+      <c r="BF19" s="17"/>
     </row>
-    <row r="20" spans="2:58" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:77" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
         <v>0</v>
@@ -2415,20 +3076,20 @@
       <c r="R20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="T20" s="19" t="s">
+      <c r="T20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19" t="s">
+      <c r="U20" s="27"/>
+      <c r="V20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19" t="s">
+      <c r="W20" s="27"/>
+      <c r="X20" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="Y20" s="19"/>
-      <c r="AB20" s="16"/>
-      <c r="AC20" s="18"/>
+      <c r="Y20" s="27"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="31"/>
       <c r="AE20" s="10" t="s">
         <v>36</v>
       </c>
@@ -2441,70 +3102,82 @@
       <c r="AI20" s="10">
         <v>0.27137388444114102</v>
       </c>
-      <c r="BD20" s="58" t="s">
+      <c r="BD20" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="BE20" s="59">
+      <c r="BE20" s="66">
         <v>5.5731000000000001E-3</v>
       </c>
-      <c r="BF20" s="53"/>
+      <c r="BF20" s="17"/>
+      <c r="BM20" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN20" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO20" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="BP20" s="75" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="21" spans="2:58" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="2:77" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="35">
         <v>3.5734759413831897E-2</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="35">
         <v>0.107985709108362</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="35">
         <v>9.6512578977891395E-2</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="35">
         <v>0.31482723911594901</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="30">
         <v>0.13077872435724</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="37">
         <v>0.17592287813968299</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="37">
         <v>0.29218703957263498</v>
       </c>
-      <c r="Q21" s="17" t="s">
+      <c r="Q21" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="R21" s="25">
+      <c r="R21" s="37">
         <v>0.32721658063845699</v>
       </c>
-      <c r="T21" s="43" t="s">
+      <c r="T21" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U21" s="44"/>
-      <c r="V21" s="41">
+      <c r="U21" s="56"/>
+      <c r="V21" s="53">
         <v>0.32721658063845699</v>
       </c>
-      <c r="W21" s="42"/>
-      <c r="X21" s="47" t="s">
+      <c r="W21" s="54"/>
+      <c r="X21" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="Y21" s="48"/>
-      <c r="AB21" s="15" t="s">
+      <c r="Y21" s="60"/>
+      <c r="AB21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AC21" s="17">
+      <c r="AC21" s="30">
         <v>0.62023235190359105</v>
       </c>
       <c r="AE21" s="10" t="s">
@@ -2519,126 +3192,154 @@
       <c r="AI21" s="10">
         <v>0.21467766871736099</v>
       </c>
-      <c r="BD21" s="55"/>
-      <c r="BE21" s="57"/>
-      <c r="BF21" s="53"/>
+      <c r="BD21" s="68"/>
+      <c r="BE21" s="64"/>
+      <c r="BF21" s="17"/>
+      <c r="BM21" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN21" s="77">
+        <v>0.26337526500000003</v>
+      </c>
+      <c r="BO21" s="77">
+        <v>0.39186747599999999</v>
+      </c>
+      <c r="BP21" s="78" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="22" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="26"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="26"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="26"/>
-      <c r="T22" s="43" t="s">
+    <row r="22" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="26"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="38"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="38"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="38"/>
+      <c r="T22" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="44"/>
-      <c r="V22" s="41">
+      <c r="U22" s="56"/>
+      <c r="V22" s="53">
         <v>0.29218703957263498</v>
       </c>
-      <c r="W22" s="42"/>
-      <c r="X22" s="47" t="s">
+      <c r="W22" s="54"/>
+      <c r="X22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="Y22" s="48"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="18"/>
+      <c r="Y22" s="60"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="31"/>
+      <c r="BM22" s="76"/>
+      <c r="BN22" s="77"/>
+      <c r="BO22" s="77"/>
+      <c r="BP22" s="78"/>
     </row>
-    <row r="23" spans="2:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+    <row r="23" spans="2:77" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="35">
         <v>4.8480330331128398E-2</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="35">
         <v>0.11984692942684801</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="35">
         <v>0.15111167115534699</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="35">
         <v>6.08370101854614E-2</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="45">
         <v>4.8480330331128398E-2</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="45">
         <v>0.1723323688534</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="N23" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="45">
         <v>0.21327960282209801</v>
       </c>
-      <c r="Q23" s="31" t="s">
+      <c r="Q23" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="33">
+      <c r="R23" s="45">
         <v>0.31482723911594901</v>
       </c>
-      <c r="T23" s="43" t="s">
+      <c r="T23" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="U23" s="44"/>
-      <c r="V23" s="41">
+      <c r="U23" s="56"/>
+      <c r="V23" s="53">
         <v>0.17592287813968299</v>
       </c>
-      <c r="W23" s="42"/>
-      <c r="X23" s="47" t="s">
+      <c r="W23" s="54"/>
+      <c r="X23" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="Y23" s="48"/>
-      <c r="AE23" s="19" t="s">
+      <c r="Y23" s="60"/>
+      <c r="AE23" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AF23" s="19"/>
-      <c r="AH23" s="19" t="s">
+      <c r="AF23" s="27"/>
+      <c r="AH23" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AI23" s="19"/>
+      <c r="AI23" s="27"/>
+      <c r="BM23" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN23" s="77">
+        <v>0.153615321</v>
+      </c>
+      <c r="BO23" s="77">
+        <v>0.172627216</v>
+      </c>
+      <c r="BP23" s="78" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="24" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="34"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="34"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="34"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="34"/>
-      <c r="T24" s="45" t="s">
+    <row r="24" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="26"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="46"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="46"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="46"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="46"/>
+      <c r="T24" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="U24" s="46"/>
-      <c r="V24" s="41">
+      <c r="U24" s="58"/>
+      <c r="V24" s="53">
         <v>0.13077872435724</v>
       </c>
-      <c r="W24" s="42"/>
-      <c r="X24" s="47" t="s">
+      <c r="W24" s="54"/>
+      <c r="X24" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="Y24" s="48"/>
+      <c r="Y24" s="60"/>
       <c r="AE24" s="10" t="s">
         <v>30</v>
       </c>
@@ -2651,45 +3352,49 @@
       <c r="AI24" s="10">
         <v>0.57169953987187405</v>
       </c>
+      <c r="BM24" s="76"/>
+      <c r="BN24" s="77"/>
+      <c r="BO24" s="77"/>
+      <c r="BP24" s="78"/>
     </row>
-    <row r="25" spans="2:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="2:77" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="35">
         <v>0</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="35">
         <v>0</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="35">
         <v>0</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="35">
         <v>0</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="45">
         <v>4.7681575514959197E-2</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="45">
         <v>0.11984692942684801</v>
       </c>
-      <c r="N25" s="31" t="s">
+      <c r="N25" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="45">
         <v>0.18478842227616701</v>
       </c>
-      <c r="Q25" s="31" t="s">
+      <c r="Q25" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R25" s="45">
         <v>0.17357165334709601</v>
       </c>
       <c r="AE25" s="10" t="s">
@@ -2704,21 +3409,33 @@
       <c r="AI25" s="10">
         <v>0.41963790962498898</v>
       </c>
+      <c r="BM25" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN25" s="77">
+        <v>0.35637160299999998</v>
+      </c>
+      <c r="BO25" s="77">
+        <v>0.48514891799999998</v>
+      </c>
+      <c r="BP25" s="78" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="26" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="34"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="34"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="34"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="34"/>
+    <row r="26" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="26"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="46"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="46"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="46"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="46"/>
       <c r="AE26" s="10" t="s">
         <v>41</v>
       </c>
@@ -2731,45 +3448,49 @@
       <c r="AI26" s="10">
         <v>0.30611612107032299</v>
       </c>
+      <c r="BM26" s="76"/>
+      <c r="BN26" s="77"/>
+      <c r="BO26" s="77"/>
+      <c r="BP26" s="78"/>
     </row>
-    <row r="27" spans="2:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+    <row r="27" spans="2:77" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="35">
         <v>0.13077872435724</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="35">
         <v>0.1723323688534</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="35">
         <v>0.21327960282209801</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="35">
         <v>0.32721658063845699</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="35">
         <v>3.5734759413831897E-2</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="35">
         <v>0.107985709108362</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="35">
         <v>0.15111167115534699</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="35">
         <v>0.12803000697554601</v>
       </c>
       <c r="T27" s="9" t="s">
@@ -2778,66 +3499,82 @@
       <c r="U27" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="BM27" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN27" s="77">
+        <v>0.872276143</v>
+      </c>
+      <c r="BO27" s="77">
+        <v>0.87568157400000002</v>
+      </c>
+      <c r="BP27" s="78" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="28" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="24"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="24"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="24"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="24"/>
+    <row r="28" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="26"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="36"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="36"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="36"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="36"/>
       <c r="T28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="U28" s="11">
         <v>1.0992864811001926</v>
       </c>
+      <c r="BM28" s="76"/>
+      <c r="BN28" s="77"/>
+      <c r="BO28" s="77"/>
+      <c r="BP28" s="78"/>
     </row>
-    <row r="29" spans="2:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="2:77" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="35">
         <v>1.9639151306537001E-2</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="35">
         <v>1.8057370237177099E-4</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="35">
         <v>0.29218703957263498</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="35">
         <v>0.17357165334709601</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="35">
         <v>1.9639151306537001E-2</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="35">
         <v>0.10511718459000099</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="35">
         <v>0.144413319981577</v>
       </c>
-      <c r="Q29" s="15" t="s">
+      <c r="Q29" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="35">
         <v>9.4803990837682997E-2</v>
       </c>
       <c r="T29" s="11" t="s">
@@ -2846,66 +3583,82 @@
       <c r="U29" s="11">
         <v>1.0822926347857154</v>
       </c>
+      <c r="BM29" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN29" s="77">
+        <v>5.6386760000000001E-2</v>
+      </c>
+      <c r="BO29" s="77">
+        <v>8.9691706999999996E-2</v>
+      </c>
+      <c r="BP29" s="78" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="30" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="24"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="24"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="24"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="24"/>
+    <row r="30" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="26"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="36"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="36"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="36"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="36"/>
       <c r="T30" s="11" t="s">
         <v>1</v>
       </c>
       <c r="U30" s="11">
         <v>0.68138564382066569</v>
       </c>
+      <c r="BM30" s="79"/>
+      <c r="BN30" s="80"/>
+      <c r="BO30" s="80"/>
+      <c r="BP30" s="81"/>
     </row>
-    <row r="31" spans="2:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="2:77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="35">
         <v>1.4837299833459E-2</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="35">
         <v>0.17592287813968299</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="35">
         <v>0.18478842227616701</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="35">
         <v>0.12803000697554601</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="35">
         <v>1.4837299833459E-2</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L31" s="23">
+      <c r="L31" s="35">
         <v>1.8057370237177099E-4</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="N31" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="23">
+      <c r="O31" s="35">
         <v>9.6512578977891395E-2</v>
       </c>
-      <c r="Q31" s="15" t="s">
+      <c r="Q31" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="35">
         <v>6.08370101854614E-2</v>
       </c>
       <c r="T31" s="12" t="s">
@@ -2914,83 +3667,221 @@
       <c r="U31" s="12">
         <v>0.29715184075715545</v>
       </c>
+      <c r="BM31" s="73"/>
+      <c r="BN31" s="74"/>
+      <c r="BO31" s="74"/>
+      <c r="BP31" s="75"/>
     </row>
-    <row r="32" spans="2:58" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="24"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="24"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="24"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="24"/>
+    <row r="32" spans="2:77" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="26"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="36"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="36"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="36"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="36"/>
+      <c r="BM32" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN32" s="77">
+        <v>0.53164540000000005</v>
+      </c>
+      <c r="BO32" s="77">
+        <v>0.64473678800000001</v>
+      </c>
+      <c r="BP32" s="78" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="33" spans="2:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
+    <row r="33" spans="2:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="35">
         <v>4.7681575514959197E-2</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="35">
         <v>0.10511718459000099</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="35">
         <v>0.144413319981577</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="35">
         <v>9.4803990837682997E-2</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="35">
         <v>0</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L33" s="35">
         <v>0</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="23">
+      <c r="O33" s="35">
         <v>0</v>
       </c>
-      <c r="Q33" s="15" t="s">
+      <c r="Q33" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="35">
         <v>0</v>
       </c>
+      <c r="BM33" s="76"/>
+      <c r="BN33" s="77"/>
+      <c r="BO33" s="77"/>
+      <c r="BP33" s="78"/>
     </row>
-    <row r="34" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="24"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="24"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="24"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="24"/>
+    <row r="34" spans="2:68" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="26"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="36"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="36"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="36"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="36"/>
+      <c r="BM34" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN34" s="77">
+        <v>0.513967591</v>
+      </c>
+      <c r="BO34" s="77">
+        <v>0.582321266</v>
+      </c>
+      <c r="BP34" s="78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BM35" s="76"/>
+      <c r="BN35" s="77"/>
+      <c r="BO35" s="77"/>
+      <c r="BP35" s="78"/>
+    </row>
+    <row r="36" spans="2:68" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BM36" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN36" s="77">
+        <v>0.26650869300000002</v>
+      </c>
+      <c r="BO36" s="77">
+        <v>0.29414592099999998</v>
+      </c>
+      <c r="BP36" s="78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BM37" s="76"/>
+      <c r="BN37" s="77"/>
+      <c r="BO37" s="77"/>
+      <c r="BP37" s="78"/>
+    </row>
+    <row r="38" spans="2:68" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BM38" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN38" s="77">
+        <v>0.64375290500000004</v>
+      </c>
+      <c r="BO38" s="77">
+        <v>0.70175197</v>
+      </c>
+      <c r="BP38" s="78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BM39" s="76"/>
+      <c r="BN39" s="77"/>
+      <c r="BO39" s="77"/>
+      <c r="BP39" s="78"/>
+    </row>
+    <row r="40" spans="2:68" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BM40" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="BN40" s="77">
+        <v>0.57169953900000003</v>
+      </c>
+      <c r="BO40" s="77">
+        <v>0.62023235200000004</v>
+      </c>
+      <c r="BP40" s="78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:68" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM41" s="79"/>
+      <c r="BN41" s="80"/>
+      <c r="BO41" s="80"/>
+      <c r="BP41" s="81"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:I17">
     <sortCondition descending="1" ref="I4:I17"/>
   </sortState>
-  <mergeCells count="329">
+  <mergeCells count="383">
+    <mergeCell ref="BM40:BM41"/>
+    <mergeCell ref="BN40:BN41"/>
+    <mergeCell ref="BO40:BO41"/>
+    <mergeCell ref="BP40:BP41"/>
+    <mergeCell ref="BM34:BM35"/>
+    <mergeCell ref="BN34:BN35"/>
+    <mergeCell ref="BO34:BO35"/>
+    <mergeCell ref="BP34:BP35"/>
+    <mergeCell ref="BM36:BM37"/>
+    <mergeCell ref="BN36:BN37"/>
+    <mergeCell ref="BO36:BO37"/>
+    <mergeCell ref="BP36:BP37"/>
+    <mergeCell ref="BM38:BM39"/>
+    <mergeCell ref="BN38:BN39"/>
+    <mergeCell ref="BO38:BO39"/>
+    <mergeCell ref="BP38:BP39"/>
+    <mergeCell ref="BM27:BM28"/>
+    <mergeCell ref="BN27:BN28"/>
+    <mergeCell ref="BO27:BO28"/>
+    <mergeCell ref="BP27:BP28"/>
+    <mergeCell ref="BM29:BM30"/>
+    <mergeCell ref="BN29:BN30"/>
+    <mergeCell ref="BO29:BO30"/>
+    <mergeCell ref="BP29:BP30"/>
+    <mergeCell ref="BM32:BM33"/>
+    <mergeCell ref="BN32:BN33"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BP32:BP33"/>
+    <mergeCell ref="BM21:BM22"/>
+    <mergeCell ref="BN21:BN22"/>
+    <mergeCell ref="BO21:BO22"/>
+    <mergeCell ref="BP21:BP22"/>
+    <mergeCell ref="BM23:BM24"/>
+    <mergeCell ref="BN23:BN24"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BP23:BP24"/>
+    <mergeCell ref="BM25:BM26"/>
+    <mergeCell ref="BN25:BN26"/>
+    <mergeCell ref="BO25:BO26"/>
+    <mergeCell ref="BP25:BP26"/>
     <mergeCell ref="BD14:BD15"/>
     <mergeCell ref="BE14:BE15"/>
     <mergeCell ref="BD16:BD17"/>
@@ -3097,6 +3988,9 @@
     <mergeCell ref="N33:N34"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L29:L30"/>
     <mergeCell ref="V22:W22"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="V23:W23"/>
@@ -3136,9 +4030,6 @@
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="L33:L34"/>
     <mergeCell ref="N21:N22"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L29:L30"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="K21:K22"/>
@@ -3320,6 +4211,20 @@
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AB7:AB8"/>
     <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BM10:BM11"/>
+    <mergeCell ref="BM12:BM13"/>
+    <mergeCell ref="BM14:BM15"/>
+    <mergeCell ref="BM16:BM17"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BT6:BT7"/>
+    <mergeCell ref="BT8:BT9"/>
+    <mergeCell ref="BT10:BT11"/>
+    <mergeCell ref="BT12:BT13"/>
+    <mergeCell ref="BT14:BT15"/>
+    <mergeCell ref="BT16:BT17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
